--- a/Brukerstøtte/Teknisk_Dokumentasjon_Eksame2023.xlsx
+++ b/Brukerstøtte/Teknisk_Dokumentasjon_Eksame2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://udeoslokommuneno-my.sharepoint.com/personal/chmaa004_osloskolen_no/Documents/Chris_Kuben_IMC/Nettside eksamen/Brukerstøtte/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F0D1809-4839-424D-9775-89CD4F64709F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="8_{4F0D1809-4839-424D-9775-89CD4F64709F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{772F5880-A3C0-43AD-9012-0AC93ABD564B}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B4687DE1-2CF7-416B-9CFC-6E0907D82232}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>PHP Admin</t>
   </si>
@@ -72,6 +72,24 @@
   </si>
   <si>
     <t>Chris_Passord123456789</t>
+  </si>
+  <si>
+    <t>Chris_VM773124</t>
+  </si>
+  <si>
+    <t>Vm_SQL_Admin_Bruker:</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>Passord</t>
+  </si>
+  <si>
+    <t>SQL_Chr1s</t>
+  </si>
+  <si>
+    <t>mySQL_Root_Pass:</t>
   </si>
 </sst>
 </file>
@@ -444,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7729222E-7329-4C0C-97ED-9ABBD3D57BDD}">
-  <dimension ref="B3:K12"/>
+  <dimension ref="B3:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -554,9 +572,13 @@
       <c r="E10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="3"/>
+      <c r="H10" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
+      <c r="J10" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="K10" s="3"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.35">
@@ -578,10 +600,30 @@
       <c r="E12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H12" s="3"/>
+      <c r="H12" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
+      <c r="K12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="H14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3" t="s">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
